--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H2">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I2">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J2">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.516243</v>
+        <v>31.41318833333333</v>
       </c>
       <c r="N2">
-        <v>118.548729</v>
+        <v>94.239565</v>
       </c>
       <c r="O2">
-        <v>0.9415305634104639</v>
+        <v>0.9249828115728291</v>
       </c>
       <c r="P2">
-        <v>0.9451188512652788</v>
+        <v>0.9287817070552402</v>
       </c>
       <c r="Q2">
-        <v>0.9917523226520001</v>
+        <v>3.154030703545555</v>
       </c>
       <c r="R2">
-        <v>8.925770903868001</v>
+        <v>28.38627633191</v>
       </c>
       <c r="S2">
-        <v>0.06162552343026691</v>
+        <v>0.3420501104656829</v>
       </c>
       <c r="T2">
-        <v>0.06646139988462203</v>
+        <v>0.4146699430365681</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H3">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I3">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J3">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.318132</v>
       </c>
       <c r="O3">
-        <v>0.04223734712711443</v>
+        <v>0.05219867780242229</v>
       </c>
       <c r="P3">
-        <v>0.04239831881046249</v>
+        <v>0.05241305726851667</v>
       </c>
       <c r="Q3">
-        <v>0.04449031050488889</v>
+        <v>0.1779884235831111</v>
       </c>
       <c r="R3">
-        <v>0.400412794544</v>
+        <v>1.601895812248</v>
       </c>
       <c r="S3">
-        <v>0.002764539703932652</v>
+        <v>0.01930258950230811</v>
       </c>
       <c r="T3">
-        <v>0.002981478590894085</v>
+        <v>0.02340067564510671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H4">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I4">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J4">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.128517</v>
+        <v>0.1488013333333333</v>
       </c>
       <c r="N4">
-        <v>0.385551</v>
+        <v>0.446404</v>
       </c>
       <c r="O4">
-        <v>0.003062099891880475</v>
+        <v>0.00438155701395011</v>
       </c>
       <c r="P4">
-        <v>0.003073769928180162</v>
+        <v>0.004399552026330847</v>
       </c>
       <c r="Q4">
-        <v>0.003225433988</v>
+        <v>0.01494034827288889</v>
       </c>
       <c r="R4">
-        <v>0.029028905892</v>
+        <v>0.134463134456</v>
       </c>
       <c r="S4">
-        <v>0.000200422074403369</v>
+        <v>0.001620259362533377</v>
       </c>
       <c r="T4">
-        <v>0.0002161495901564318</v>
+        <v>0.001964252713298243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H5">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I5">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J5">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.478039</v>
+        <v>0.416719</v>
       </c>
       <c r="N5">
-        <v>0.956078</v>
+        <v>0.833438</v>
       </c>
       <c r="O5">
-        <v>0.01138995751701837</v>
+        <v>0.01227057591752947</v>
       </c>
       <c r="P5">
-        <v>0.007622244023215172</v>
+        <v>0.008213980702953216</v>
       </c>
       <c r="Q5">
-        <v>0.01199750412933333</v>
+        <v>0.04184053228866666</v>
       </c>
       <c r="R5">
-        <v>0.071985024776</v>
+        <v>0.251043193732</v>
       </c>
       <c r="S5">
-        <v>0.0007455011245649379</v>
+        <v>0.004537545774425495</v>
       </c>
       <c r="T5">
-        <v>0.0005360013794740022</v>
+        <v>0.003667267436819251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02509733333333333</v>
+        <v>0.1004046666666667</v>
       </c>
       <c r="H6">
-        <v>0.075292</v>
+        <v>0.301214</v>
       </c>
       <c r="I6">
-        <v>0.06545249387023989</v>
+        <v>0.3697907746891698</v>
       </c>
       <c r="J6">
-        <v>0.07032067955860447</v>
+        <v>0.44646652694238</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07470833333333333</v>
+        <v>0.2094153333333334</v>
       </c>
       <c r="N6">
-        <v>0.224125</v>
+        <v>0.6282460000000001</v>
       </c>
       <c r="O6">
-        <v>0.001780032053522651</v>
+        <v>0.006166377693269103</v>
       </c>
       <c r="P6">
-        <v>0.001786815972863198</v>
+        <v>0.006191702946958919</v>
       </c>
       <c r="Q6">
-        <v>0.001874979944444444</v>
+        <v>0.02102627673822222</v>
       </c>
       <c r="R6">
-        <v>0.0168748195</v>
+        <v>0.189236490644</v>
       </c>
       <c r="S6">
-        <v>0.0001165075370720218</v>
+        <v>0.002280269584219998</v>
       </c>
       <c r="T6">
-        <v>0.000125650113457909</v>
+        <v>0.002764388110587648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.093667</v>
       </c>
       <c r="I7">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J7">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.516243</v>
+        <v>31.41318833333333</v>
       </c>
       <c r="N7">
-        <v>118.548729</v>
+        <v>94.239565</v>
       </c>
       <c r="O7">
-        <v>0.9415305634104639</v>
+        <v>0.9249828115728291</v>
       </c>
       <c r="P7">
-        <v>0.9451188512652788</v>
+        <v>0.9287817070552402</v>
       </c>
       <c r="Q7">
-        <v>1.233789311027</v>
+        <v>0.9807930372061112</v>
       </c>
       <c r="R7">
-        <v>11.104103799243</v>
+        <v>8.827137334854999</v>
       </c>
       <c r="S7">
-        <v>0.07666522211048732</v>
+        <v>0.1063655995305302</v>
       </c>
       <c r="T7">
-        <v>0.08268129340425133</v>
+        <v>0.1289478229909839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.093667</v>
       </c>
       <c r="I8">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J8">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.318132</v>
       </c>
       <c r="O8">
-        <v>0.04223734712711443</v>
+        <v>0.05219867780242229</v>
       </c>
       <c r="P8">
-        <v>0.04239831881046249</v>
+        <v>0.05241305726851667</v>
       </c>
       <c r="Q8">
         <v>0.05534816333822223</v>
@@ -948,10 +948,10 @@
         <v>0.498133470044</v>
       </c>
       <c r="S8">
-        <v>0.003439225156035963</v>
+        <v>0.006002429006994012</v>
       </c>
       <c r="T8">
-        <v>0.003709107942055945</v>
+        <v>0.007276790207793163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.093667</v>
       </c>
       <c r="I9">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J9">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.128517</v>
+        <v>0.1488013333333333</v>
       </c>
       <c r="N9">
-        <v>0.385551</v>
+        <v>0.446404</v>
       </c>
       <c r="O9">
-        <v>0.003062099891880475</v>
+        <v>0.00438155701395011</v>
       </c>
       <c r="P9">
-        <v>0.003073769928180162</v>
+        <v>0.004399552026330847</v>
       </c>
       <c r="Q9">
-        <v>0.004012600613</v>
+        <v>0.004645924829777778</v>
       </c>
       <c r="R9">
-        <v>0.036113405517</v>
+        <v>0.041813323468</v>
       </c>
       <c r="S9">
-        <v>0.0002493350481211864</v>
+        <v>0.0005038438907567837</v>
       </c>
       <c r="T9">
-        <v>0.0002689008614618087</v>
+        <v>0.0006108137699326943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,40 +1042,40 @@
         <v>0.093667</v>
       </c>
       <c r="I10">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J10">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.478039</v>
+        <v>0.416719</v>
       </c>
       <c r="N10">
-        <v>0.956078</v>
+        <v>0.833438</v>
       </c>
       <c r="O10">
-        <v>0.01138995751701837</v>
+        <v>0.01227057591752947</v>
       </c>
       <c r="P10">
-        <v>0.007622244023215172</v>
+        <v>0.008213980702953216</v>
       </c>
       <c r="Q10">
-        <v>0.01492549300433333</v>
+        <v>0.01301093952433333</v>
       </c>
       <c r="R10">
-        <v>0.089552958026</v>
+        <v>0.078065637146</v>
       </c>
       <c r="S10">
-        <v>0.0009274405492565484</v>
+        <v>0.001411017748355365</v>
       </c>
       <c r="T10">
-        <v>0.0006668124264356287</v>
+        <v>0.001140391678356746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,40 +1104,40 @@
         <v>0.093667</v>
       </c>
       <c r="I11">
-        <v>0.08142616404589811</v>
+        <v>0.1149919741207596</v>
       </c>
       <c r="J11">
-        <v>0.08748242963682468</v>
+        <v>0.1388354464902425</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.07470833333333333</v>
+        <v>0.2094153333333334</v>
       </c>
       <c r="N11">
-        <v>0.224125</v>
+        <v>0.6282460000000001</v>
       </c>
       <c r="O11">
-        <v>0.001780032053522651</v>
+        <v>0.006166377693269103</v>
       </c>
       <c r="P11">
-        <v>0.001786815972863198</v>
+        <v>0.006191702946958919</v>
       </c>
       <c r="Q11">
-        <v>0.002332568486111111</v>
+        <v>0.006538435342444446</v>
       </c>
       <c r="R11">
-        <v>0.020993116375</v>
+        <v>0.05884591808200001</v>
       </c>
       <c r="S11">
-        <v>0.0001449411819970922</v>
+        <v>0.0007090839441232299</v>
       </c>
       <c r="T11">
-        <v>0.0001563150026199591</v>
+        <v>0.0008596278431759919</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H12">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I12">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J12">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>39.516243</v>
+        <v>31.41318833333333</v>
       </c>
       <c r="N12">
-        <v>118.548729</v>
+        <v>94.239565</v>
       </c>
       <c r="O12">
-        <v>0.9415305634104639</v>
+        <v>0.9249828115728291</v>
       </c>
       <c r="P12">
-        <v>0.9451188512652788</v>
+        <v>0.9287817070552402</v>
       </c>
       <c r="Q12">
-        <v>3.1468957694265</v>
+        <v>4.394406622544166</v>
       </c>
       <c r="R12">
-        <v>18.881374616559</v>
+        <v>26.366439735265</v>
       </c>
       <c r="S12">
-        <v>0.1955418651834599</v>
+        <v>0.4765671015766161</v>
       </c>
       <c r="T12">
-        <v>0.1405909475246193</v>
+        <v>0.3851639410276882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H13">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I13">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J13">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.318132</v>
       </c>
       <c r="O13">
-        <v>0.04223734712711443</v>
+        <v>0.05219867780242229</v>
       </c>
       <c r="P13">
-        <v>0.04239831881046249</v>
+        <v>0.05241305726851667</v>
       </c>
       <c r="Q13">
-        <v>0.1411707002953334</v>
+        <v>0.2479853815153333</v>
       </c>
       <c r="R13">
-        <v>0.847024201772</v>
+        <v>1.487912289092</v>
       </c>
       <c r="S13">
-        <v>0.008772067480975219</v>
+        <v>0.02689365929312017</v>
       </c>
       <c r="T13">
-        <v>0.006306952619804119</v>
+        <v>0.0217355914156168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H14">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I14">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J14">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.128517</v>
+        <v>0.1488013333333333</v>
       </c>
       <c r="N14">
-        <v>0.385551</v>
+        <v>0.446404</v>
       </c>
       <c r="O14">
-        <v>0.003062099891880475</v>
+        <v>0.00438155701395011</v>
       </c>
       <c r="P14">
-        <v>0.003073769928180162</v>
+        <v>0.004399552026330847</v>
       </c>
       <c r="Q14">
-        <v>0.0102345155535</v>
+        <v>0.02081589292066667</v>
       </c>
       <c r="R14">
-        <v>0.06140709332099999</v>
+        <v>0.124895357524</v>
       </c>
       <c r="S14">
-        <v>0.0006359525091437136</v>
+        <v>0.00225745376065995</v>
       </c>
       <c r="T14">
-        <v>0.0004572379718138056</v>
+        <v>0.001824485543099909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,46 +1346,46 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H15">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I15">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J15">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.478039</v>
+        <v>0.416719</v>
       </c>
       <c r="N15">
-        <v>0.956078</v>
+        <v>0.833438</v>
       </c>
       <c r="O15">
-        <v>0.01138995751701837</v>
+        <v>0.01227057591752947</v>
       </c>
       <c r="P15">
-        <v>0.007622244023215172</v>
+        <v>0.008213980702953216</v>
       </c>
       <c r="Q15">
-        <v>0.0380688747845</v>
+        <v>0.0582950292695</v>
       </c>
       <c r="R15">
-        <v>0.152275499138</v>
+        <v>0.233180117078</v>
       </c>
       <c r="S15">
-        <v>0.00236552441714755</v>
+        <v>0.006322012394748614</v>
       </c>
       <c r="T15">
-        <v>0.001133845238673482</v>
+        <v>0.003406321587777219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,356 +1408,46 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.0796355</v>
+        <v>0.1398905</v>
       </c>
       <c r="H16">
-        <v>0.159271</v>
+        <v>0.279781</v>
       </c>
       <c r="I16">
-        <v>0.2076850957181436</v>
+        <v>0.5152172511900707</v>
       </c>
       <c r="J16">
-        <v>0.1487547807732361</v>
+        <v>0.4146980265673775</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07470833333333333</v>
+        <v>0.2094153333333334</v>
       </c>
       <c r="N16">
-        <v>0.224125</v>
+        <v>0.6282460000000001</v>
       </c>
       <c r="O16">
-        <v>0.001780032053522651</v>
+        <v>0.006166377693269103</v>
       </c>
       <c r="P16">
-        <v>0.001786815972863198</v>
+        <v>0.006191702946958919</v>
       </c>
       <c r="Q16">
-        <v>0.005949435479166667</v>
+        <v>0.02929521568766667</v>
       </c>
       <c r="R16">
-        <v>0.035696612875</v>
+        <v>0.175771294126</v>
       </c>
       <c r="S16">
-        <v>0.0003696861274172154</v>
+        <v>0.003177024164925876</v>
       </c>
       <c r="T16">
-        <v>0.0002657974183253816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J17">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>39.516243</v>
-      </c>
-      <c r="N17">
-        <v>118.548729</v>
-      </c>
-      <c r="O17">
-        <v>0.9415305634104639</v>
-      </c>
-      <c r="P17">
-        <v>0.9451188512652788</v>
-      </c>
-      <c r="Q17">
-        <v>9.779809119665</v>
-      </c>
-      <c r="R17">
-        <v>88.018282076985</v>
-      </c>
-      <c r="S17">
-        <v>0.6076979526862497</v>
-      </c>
-      <c r="T17">
-        <v>0.6553852104517861</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J18">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1.772710666666667</v>
-      </c>
-      <c r="N18">
-        <v>5.318132</v>
-      </c>
-      <c r="O18">
-        <v>0.04223734712711443</v>
-      </c>
-      <c r="P18">
-        <v>0.04239831881046249</v>
-      </c>
-      <c r="Q18">
-        <v>0.4387252083755556</v>
-      </c>
-      <c r="R18">
-        <v>3.94852687538</v>
-      </c>
-      <c r="S18">
-        <v>0.02726151478617059</v>
-      </c>
-      <c r="T18">
-        <v>0.02940077965770833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J19">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.128517</v>
-      </c>
-      <c r="N19">
-        <v>0.385551</v>
-      </c>
-      <c r="O19">
-        <v>0.003062099891880475</v>
-      </c>
-      <c r="P19">
-        <v>0.003073769928180162</v>
-      </c>
-      <c r="Q19">
-        <v>0.03180645813499999</v>
-      </c>
-      <c r="R19">
-        <v>0.2862581232149999</v>
-      </c>
-      <c r="S19">
-        <v>0.001976390260212205</v>
-      </c>
-      <c r="T19">
-        <v>0.002131481504748115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J20">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.478039</v>
-      </c>
-      <c r="N20">
-        <v>0.956078</v>
-      </c>
-      <c r="O20">
-        <v>0.01138995751701837</v>
-      </c>
-      <c r="P20">
-        <v>0.007622244023215172</v>
-      </c>
-      <c r="Q20">
-        <v>0.1183090753783333</v>
-      </c>
-      <c r="R20">
-        <v>0.7098544522699999</v>
-      </c>
-      <c r="S20">
-        <v>0.007351491426049335</v>
-      </c>
-      <c r="T20">
-        <v>0.005285584978632058</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.2474883333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.7424649999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.6454362463657183</v>
-      </c>
-      <c r="J21">
-        <v>0.6934421100313347</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.07470833333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.224125</v>
-      </c>
-      <c r="O21">
-        <v>0.001780032053522651</v>
-      </c>
-      <c r="P21">
-        <v>0.001786815972863198</v>
-      </c>
-      <c r="Q21">
-        <v>0.01848944090277778</v>
-      </c>
-      <c r="R21">
-        <v>0.166404968125</v>
-      </c>
-      <c r="S21">
-        <v>0.001148897207036321</v>
-      </c>
-      <c r="T21">
-        <v>0.001239053438459948</v>
+        <v>0.002567686993195279</v>
       </c>
     </row>
   </sheetData>
